--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T14:48:43+00:00</t>
+    <t>2023-09-01T15:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T15:11:28+00:00</t>
+    <t>2023-09-01T16:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T16:11:30+00:00</t>
+    <t>2023-09-01T16:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Définition des p" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from ResearchStudyPha" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Définition des p" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T16:27:26+00:00</t>
+    <t>2023-09-01T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>System URI</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/research-study-phase</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/CodeSystem/eclaire-study-phase-source-code-system</t>
@@ -398,4 +402,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from ResearchStudyPha" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Définition des p" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Définition des p" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T17:43:23+00:00</t>
+    <t>2023-09-01T17:52:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -101,9 +100,6 @@
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/research-study-phase</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/CodeSystem/eclaire-study-phase-source-code-system</t>
@@ -402,47 +398,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T17:52:23+00:00</t>
+    <t>2023-09-01T18:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T18:07:06+00:00</t>
+    <t>2023-09-01T19:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T19:56:54+00:00</t>
+    <t>2023-09-01T20:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:06:11+00:00</t>
+    <t>2023-09-01T20:29:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:29:55+00:00</t>
+    <t>2023-09-01T20:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T20:45:21+00:00</t>
+    <t>2023-09-04T08:26:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:26:45+00:00</t>
+    <t>2023-09-04T08:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T08:52:21+00:00</t>
+    <t>2023-09-04T09:00:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T09:00:04+00:00</t>
+    <t>2023-09-04T09:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
+++ b/ig/sd-correction-conceptmaps/ValueSet-eclaire-study-phase-source-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-04T09:07:49+00:00</t>
+    <t>2023-09-04T10:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
